--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3021.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3021.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17237757361881</v>
+        <v>1.402482867240906</v>
       </c>
       <c r="B1">
-        <v>2.130393767010249</v>
+        <v>1.616135835647583</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.997123718261719</v>
       </c>
       <c r="D1">
-        <v>2.045831739086424</v>
+        <v>2.654081344604492</v>
       </c>
       <c r="E1">
-        <v>1.199097853472982</v>
+        <v>1.166913986206055</v>
       </c>
     </row>
   </sheetData>
